--- a/data/fact_data/parbhani/Parbhani_Sec_Apr_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Apr_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64D966A-D959-2C48-A89E-F0CE2CC5342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B904D2B-3F9E-F249-8AEE-8C12D0DC505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Apr</t>
   </si>
   <si>
-    <t>Apr</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1926,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1952,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1982,13 +1980,13 @@
         <v>3276</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2012,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2042,13 +2040,13 @@
         <v>260</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2072,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2102,13 +2100,13 @@
         <v>2992</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2132,13 +2130,13 @@
         <v>1824</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2146,7 +2144,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2158,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2172,7 +2170,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2184,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2214,13 +2212,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2244,13 +2242,13 @@
         <v>11590</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2274,13 +2272,13 @@
         <v>5512</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2288,7 +2286,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2304,13 +2302,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2318,7 +2316,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -2331,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2345,7 +2343,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>515</v>
@@ -2361,13 +2359,13 @@
         <v>10780</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2375,7 +2373,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>182</v>
@@ -2391,13 +2389,13 @@
         <v>5586</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2405,7 +2403,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2417,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2431,7 +2429,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2447,13 +2445,13 @@
         <v>32319</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2461,7 +2459,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -2477,13 +2475,13 @@
         <v>6190</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2491,7 +2489,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2500,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2530,13 +2528,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2544,7 +2542,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2560,13 +2558,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2590,13 +2588,13 @@
         <v>2400</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2620,13 +2618,13 @@
         <v>2880</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2634,7 +2632,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -2650,13 +2648,13 @@
         <v>1660</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2680,13 +2678,13 @@
         <v>3440</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2694,7 +2692,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -2710,13 +2708,13 @@
         <v>720</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2724,7 +2722,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -2740,13 +2738,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2754,7 +2752,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2770,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2784,7 +2782,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2800,13 +2798,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2814,7 +2812,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2830,13 +2828,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2860,13 +2858,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2874,7 +2872,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2883,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2913,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2943,13 +2941,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2973,13 +2971,13 @@
         <v>3820</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -3003,13 +3001,13 @@
         <v>1176</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3033,13 +3031,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3063,13 +3061,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3077,7 +3075,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -3093,13 +3091,13 @@
         <v>3810</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3107,7 +3105,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3123,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3137,7 +3135,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -3153,13 +3151,13 @@
         <v>1510</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3167,7 +3165,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3176,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3190,7 +3188,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3203,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3231,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3261,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3316,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3330,7 +3328,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3346,13 +3344,13 @@
         <v>968</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3370,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3384,7 +3382,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>45</v>
@@ -3400,13 +3398,13 @@
         <v>3845</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3414,7 +3412,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3424,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3438,7 +3436,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -3454,13 +3452,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3468,7 +3466,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3478,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3492,7 +3490,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3508,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3522,7 +3520,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3538,13 +3536,13 @@
         <v>472</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3552,7 +3550,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3568,13 +3566,13 @@
         <v>672</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3582,7 +3580,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3598,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3612,7 +3610,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3628,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3642,7 +3640,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3650,13 +3648,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3664,7 +3662,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -3676,13 +3674,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3690,7 +3688,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3702,13 +3700,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3716,7 +3714,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3728,13 +3726,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3742,18 +3740,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3761,7 +3759,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>9</v>
@@ -3773,13 +3771,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3787,7 +3785,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3795,13 +3793,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3809,7 +3807,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
@@ -3821,13 +3819,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3835,7 +3833,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>16</v>
@@ -3847,13 +3845,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3861,7 +3859,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>170273</v>
@@ -3870,13 +3868,13 @@
         <v>108316</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3892,9 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3904,31 +3900,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3949,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3979,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4009,13 +4005,13 @@
         <v>1365</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4035,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4061,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4087,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4117,13 +4113,13 @@
         <v>1408</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4147,13 +4143,13 @@
         <v>1710</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4161,7 +4157,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4173,13 +4169,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4187,7 +4183,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4199,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4225,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4255,13 +4251,13 @@
         <v>8113</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4281,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4295,7 +4291,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4307,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4330,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4344,7 +4340,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>97</v>
@@ -4360,13 +4356,13 @@
         <v>7280</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>60</v>
@@ -4390,13 +4386,13 @@
         <v>5880</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4404,7 +4400,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4416,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4430,7 +4426,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4442,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4456,7 +4452,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4468,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4482,7 +4478,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4491,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4521,13 +4517,13 @@
         <v>4466</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4535,7 +4531,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4551,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4581,13 +4577,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4611,13 +4607,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4625,7 +4621,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4641,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4655,7 +4651,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4669,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4683,7 +4679,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -4699,13 +4695,13 @@
         <v>1440</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4713,7 +4709,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4729,13 +4725,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4743,7 +4739,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4759,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4773,7 +4769,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4789,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4803,7 +4799,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4819,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4849,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4863,7 +4859,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4872,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4902,13 +4898,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4928,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4954,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4968,7 +4964,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4980,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5006,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5032,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5046,7 +5042,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5062,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5076,7 +5072,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5092,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5106,7 +5102,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5122,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5136,7 +5132,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5145,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5159,7 +5155,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5168,13 +5164,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5194,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5220,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5250,13 +5246,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5273,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5287,7 +5283,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -5303,13 +5299,13 @@
         <v>3388</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5317,7 +5313,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5327,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5341,7 +5337,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5353,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5367,7 +5363,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5377,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5391,7 +5387,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5403,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5417,7 +5413,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5427,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5453,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5467,7 +5463,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5479,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5493,7 +5489,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5505,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5519,7 +5515,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5531,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5545,7 +5541,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5557,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5571,7 +5567,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5579,13 +5575,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5593,7 +5589,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5601,13 +5597,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5615,7 +5611,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5623,13 +5619,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5637,7 +5633,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5645,13 +5641,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5659,18 +5655,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5678,7 +5674,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
@@ -5690,13 +5686,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5704,7 +5700,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5712,13 +5708,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5726,7 +5722,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -5738,13 +5734,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5752,7 +5748,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5764,13 +5760,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5778,7 +5774,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>29672</v>
@@ -5787,13 +5783,13 @@
         <v>55005</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5808,9 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5820,31 +5814,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5861,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5887,13 +5881,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5917,13 +5911,13 @@
         <v>9191</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5943,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5969,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -5995,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6025,13 +6019,13 @@
         <v>3344</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6055,13 +6049,13 @@
         <v>3135</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6069,7 +6063,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6085,13 +6079,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6099,7 +6093,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6115,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6141,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6171,13 +6165,13 @@
         <v>12200</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6201,13 +6195,13 @@
         <v>1976</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6215,7 +6209,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6231,13 +6225,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6245,7 +6239,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -6258,13 +6252,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6272,7 +6266,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>300</v>
@@ -6288,13 +6282,13 @@
         <v>9940</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6302,7 +6296,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>208</v>
@@ -6318,13 +6312,13 @@
         <v>4116</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6332,7 +6326,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6348,13 +6342,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6362,7 +6356,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6378,13 +6372,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6392,7 +6386,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -6408,13 +6402,13 @@
         <v>4952</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6422,7 +6416,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6431,13 +6425,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6461,13 +6455,13 @@
         <v>8294</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6475,7 +6469,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>6</v>
@@ -6491,13 +6485,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6521,13 +6515,13 @@
         <v>1440</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6551,13 +6545,13 @@
         <v>3360</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6565,7 +6559,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6581,13 +6575,13 @@
         <v>1660</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6595,7 +6589,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6611,13 +6605,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6625,7 +6619,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -6641,13 +6635,13 @@
         <v>720</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6655,7 +6649,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6671,13 +6665,13 @@
         <v>269</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6685,7 +6679,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6701,13 +6695,13 @@
         <v>1899</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6715,7 +6709,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -6731,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6745,7 +6739,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6761,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6791,13 +6785,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6805,7 +6799,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6814,13 +6808,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6844,13 +6838,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6874,13 +6868,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6904,13 +6898,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6918,7 +6912,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -6934,13 +6928,13 @@
         <v>840</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6964,13 +6958,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6994,13 +6988,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7008,7 +7002,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -7024,13 +7018,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7038,7 +7032,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7054,13 +7048,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7068,7 +7062,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7084,13 +7078,13 @@
         <v>3775</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7098,7 +7092,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7107,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7121,7 +7115,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7130,13 +7124,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7160,13 +7154,13 @@
         <v>9840</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7190,13 +7184,13 @@
         <v>628</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7220,13 +7214,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7234,7 +7228,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7243,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7257,7 +7251,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -7273,13 +7267,13 @@
         <v>3872</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7287,7 +7281,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7297,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7311,7 +7305,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
@@ -7327,13 +7321,13 @@
         <v>5383</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7341,7 +7335,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7351,13 +7345,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7365,7 +7359,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>10</v>
@@ -7381,13 +7375,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7395,7 +7389,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7405,13 +7399,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7419,7 +7413,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -7435,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7449,7 +7443,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7465,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7479,7 +7473,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7495,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7509,7 +7503,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7525,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7539,7 +7533,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7555,13 +7549,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7569,7 +7563,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7577,13 +7571,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7591,7 +7585,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7603,13 +7597,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7617,7 +7611,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7629,13 +7623,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7643,7 +7637,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7655,13 +7649,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7669,18 +7663,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7688,7 +7682,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -7700,13 +7694,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7714,7 +7708,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -7726,13 +7720,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7740,7 +7734,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7752,13 +7746,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7766,7 +7760,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>13</v>
@@ -7778,13 +7772,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7792,7 +7786,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>146005</v>
@@ -7801,13 +7795,13 @@
         <v>114385</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7822,9 +7816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7833,31 +7825,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7874,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7900,13 +7892,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7930,13 +7922,13 @@
         <v>4732</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7956,13 +7948,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7986,13 +7978,13 @@
         <v>390</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8012,13 +8004,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8042,13 +8034,13 @@
         <v>1672</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8072,13 +8064,13 @@
         <v>1197</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8086,7 +8078,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8098,13 +8090,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8112,7 +8104,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8124,13 +8116,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8154,13 +8146,13 @@
         <v>2676</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8184,13 +8176,13 @@
         <v>2379</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8214,13 +8206,13 @@
         <v>6968</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8228,7 +8220,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8244,13 +8236,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8258,7 +8250,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -8271,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8285,7 +8277,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>183</v>
@@ -8301,13 +8293,13 @@
         <v>6930</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8315,7 +8307,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>206</v>
@@ -8331,13 +8323,13 @@
         <v>3871</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8345,7 +8337,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8357,13 +8349,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8371,7 +8363,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -8387,13 +8379,13 @@
         <v>14364</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8401,7 +8393,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8413,13 +8405,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8427,7 +8419,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8436,13 +8428,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8466,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8480,7 +8472,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -8496,13 +8488,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8526,13 +8518,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8556,13 +8548,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8570,7 +8562,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8586,13 +8578,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8600,7 +8592,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8616,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8630,7 +8622,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -8646,13 +8638,13 @@
         <v>3960</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8660,7 +8652,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -8676,13 +8668,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8690,7 +8682,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -8706,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8720,7 +8712,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -8736,13 +8728,13 @@
         <v>2367</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8750,7 +8742,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8766,13 +8758,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8796,13 +8788,13 @@
         <v>2589</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8810,7 +8802,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8819,13 +8811,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8849,13 +8841,13 @@
         <v>4544</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8879,13 +8871,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8909,13 +8901,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8923,7 +8915,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8939,13 +8931,13 @@
         <v>1680</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8965,13 +8957,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -8991,13 +8983,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9005,7 +8997,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9021,13 +9013,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9035,7 +9027,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9051,13 +9043,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9065,7 +9057,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9081,13 +9073,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9095,7 +9087,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9104,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9118,7 +9110,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9127,13 +9119,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9157,13 +9149,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9187,13 +9179,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9217,13 +9209,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9231,7 +9223,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9240,13 +9232,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9254,7 +9246,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -9270,13 +9262,13 @@
         <v>1936</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9284,7 +9276,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9294,13 +9286,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9308,7 +9300,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
@@ -9324,13 +9316,13 @@
         <v>16918</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9338,7 +9330,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9348,13 +9340,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9362,7 +9354,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -9378,13 +9370,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9392,7 +9384,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9402,13 +9394,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9416,7 +9408,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9428,13 +9420,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9442,7 +9434,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9454,13 +9446,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9468,7 +9460,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9480,13 +9472,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9494,7 +9486,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9506,13 +9498,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9520,7 +9512,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9532,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9546,7 +9538,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9554,13 +9546,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9568,7 +9560,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9576,13 +9568,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9590,7 +9582,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9598,13 +9590,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9612,7 +9604,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9620,13 +9612,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9634,18 +9626,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9653,7 +9645,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
@@ -9665,13 +9657,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9679,7 +9671,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9687,13 +9679,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9701,7 +9693,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -9713,13 +9705,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9727,7 +9719,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -9739,13 +9731,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9753,7 +9745,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>70965</v>
@@ -9762,13 +9754,13 @@
         <v>133008</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9783,9 +9775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9795,31 +9785,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9839,10 +9829,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9865,10 +9855,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9895,10 +9885,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9921,10 +9911,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9947,10 +9937,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9973,10 +9963,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -9999,10 +9989,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10025,10 +10015,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10036,7 +10026,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10051,10 +10041,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10062,7 +10052,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10077,10 +10067,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10103,10 +10093,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10133,10 +10123,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10159,10 +10149,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10170,7 +10160,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10185,10 +10175,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10196,7 +10186,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10208,10 +10198,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10219,7 +10209,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10238,10 +10228,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10249,7 +10239,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10264,10 +10254,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10275,7 +10265,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10290,10 +10280,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10301,7 +10291,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10316,10 +10306,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10327,7 +10317,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10342,10 +10332,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10353,7 +10343,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10365,10 +10355,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10393,10 +10383,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10404,7 +10394,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10423,10 +10413,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10453,10 +10443,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10483,10 +10473,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10494,7 +10484,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10509,10 +10499,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10520,7 +10510,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10535,10 +10525,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10546,7 +10536,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10561,10 +10551,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10572,7 +10562,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10587,10 +10577,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10598,7 +10588,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10613,10 +10603,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10624,7 +10614,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10639,10 +10629,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10650,7 +10640,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10665,10 +10655,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10691,10 +10681,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10702,7 +10692,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10714,10 +10704,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10740,10 +10730,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10766,10 +10756,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10792,10 +10782,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10803,7 +10793,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10822,10 +10812,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10848,10 +10838,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10874,10 +10864,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10885,7 +10875,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10900,10 +10890,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10911,7 +10901,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10926,10 +10916,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10937,7 +10927,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10952,10 +10942,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10963,7 +10953,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10975,10 +10965,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -10986,7 +10976,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -10998,10 +10988,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11024,10 +11014,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11050,10 +11040,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11076,10 +11066,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11087,7 +11077,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11099,10 +11089,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11110,7 +11100,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11125,10 +11115,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11136,7 +11126,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11149,10 +11139,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11160,7 +11150,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11175,10 +11165,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11186,7 +11176,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11199,10 +11189,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11210,7 +11200,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11225,10 +11215,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11236,7 +11226,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11249,10 +11239,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11260,7 +11250,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11275,10 +11265,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11286,7 +11276,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11301,10 +11291,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11312,7 +11302,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11327,10 +11317,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11338,7 +11328,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11353,10 +11343,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11364,7 +11354,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11379,10 +11369,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11390,7 +11380,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11401,10 +11391,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11412,7 +11402,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11423,10 +11413,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11434,7 +11424,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11445,10 +11435,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11456,7 +11446,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11467,10 +11457,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11478,7 +11468,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11486,10 +11476,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11497,7 +11487,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11508,10 +11498,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11519,7 +11509,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11530,10 +11520,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11541,7 +11531,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11552,10 +11542,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11563,7 +11553,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11574,10 +11564,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11585,7 +11575,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11597,10 +11587,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
